--- a/exe/Experiment/答题数据.xlsx
+++ b/exe/Experiment/答题数据.xlsx
@@ -998,7 +998,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1041,14 +1041,14 @@
         <v>59</v>
       </c>
       <c r="D2" s="1">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1">
         <v>25</v>
       </c>
       <c r="F2" s="1">
         <f>D2-C2</f>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1060,14 +1060,14 @@
         <v>60</v>
       </c>
       <c r="D3" s="1">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1">
         <v>29</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F14" si="0">D3-C3</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1079,14 +1079,14 @@
         <v>55</v>
       </c>
       <c r="D4" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1">
         <v>26</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1098,14 +1098,14 @@
         <v>75</v>
       </c>
       <c r="D5" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1">
         <v>34</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1117,14 +1117,14 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" s="1">
         <v>22</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -1135,14 +1135,14 @@
         <v>64</v>
       </c>
       <c r="D7" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="1">
         <v>28</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -1153,14 +1153,14 @@
         <v>65</v>
       </c>
       <c r="D8" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1">
         <v>19</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -1171,14 +1171,14 @@
         <v>56</v>
       </c>
       <c r="D9" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1">
         <v>29</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -1207,14 +1207,14 @@
         <v>55</v>
       </c>
       <c r="D11" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1">
         <v>28</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -1225,14 +1225,14 @@
         <v>68</v>
       </c>
       <c r="D12" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1">
         <v>24</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -1243,14 +1243,14 @@
         <v>70</v>
       </c>
       <c r="D13" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1">
         <v>26</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:6">
